--- a/数据整理/stocks/港股/01209-华润万象生活.xlsx
+++ b/数据整理/stocks/港股/01209-华润万象生活.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,15 +472,25 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -502,15 +512,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>14.75</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>93.35</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>2.71</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.3997</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>8</v>
       </c>
     </row>
@@ -530,15 +550,25 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>14.75</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>93.35</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>2.71</t>
         </is>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.3997</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>8</v>
       </c>
     </row>
@@ -553,7 +583,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -574,15 +604,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -604,15 +644,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>50.63</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>89.90</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>3.09</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.5645</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>9</v>
       </c>
     </row>
@@ -632,15 +682,25 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>50.63</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>89.90</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>3.09</t>
         </is>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.5645</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>9</v>
       </c>
     </row>
@@ -650,26 +710,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>519601</t>
+          <t>005534</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>海富通中国海外精选混合(QDII)</t>
+          <t>华夏新时代灵活配置混合（QDII）</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>94.88</t>
+          <t>4.62</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>5.50</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>2</v>
+          <t>84.89</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1257</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="5">
@@ -678,25 +748,35 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>519602</t>
+          <t>161620</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>海富通大中华精选混合QDII</t>
+          <t>融通核心价值混合（QDII）</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>92.07</t>
+          <t>1.20</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>5.18</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
+          <t>71.45</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.47</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0776</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
         <v>3</v>
       </c>
     </row>
@@ -706,26 +786,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>161620</t>
+          <t>519601</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>融通核心价值混合（QDII）</t>
+          <t>海富通中国海外精选混合(QDII)</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>71.45</t>
+          <t>1.20</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>6.47</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>3</v>
+          <t>94.88</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.50</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0660</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="7">
@@ -734,26 +824,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>005534</t>
+          <t>519602</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>华夏新时代灵活配置混合（QDII）</t>
+          <t>海富通大中华精选混合QDII</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>84.89</t>
+          <t>0.18</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>2.72</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>6</v>
+          <t>92.07</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.18</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0093</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/港股/01209-华润万象生活.xlsx
+++ b/数据整理/stocks/港股/01209-华润万象生活.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -859,4 +860,440 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>005644</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发沪港深行业龙头混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>31.42</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.89</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.96</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.8726</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>007151</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>前海开源沪港深聚瑞混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.60</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>8.97</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1166</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>002443</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>前海开源沪港深龙头精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.78</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7.22</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0845</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>161620</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>融通核心价值混合（QDII）</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>75.84</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.14</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0712</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>519601</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>海富通中国海外精选混合(QDII)</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>90.44</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.90</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0603</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>002230</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华夏大中华企业精选灵活配置混合(QDII)</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>91.40</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0310</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>006652</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>富国金融地产行业混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>89.60</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.53</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0226</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>519602</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>海富通大中华精选混合QDII</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>91.21</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.88</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0083</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>501023</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>鹏华港股通中证香港中小企业投资主题指数(LOF)</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>88.99</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0034</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>011124</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>富国金融地产行业混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>89.60</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.53</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/港股/01209-华润万象生活.xlsx
+++ b/数据整理/stocks/港股/01209-华润万象生活.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1296,4 +1297,744 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>009714</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华安聚优精选混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>93.69</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>82.67</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.3166</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>008371</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华安汇智精选两年持有期混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>22.85</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>77.22</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.7289</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>009931</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>淳厚欣享一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>15.09</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>78.15</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.96</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2958</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>008186</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>淳厚信睿核心精选混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>8.67</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>90.45</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2011</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>008290</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华安现代生活混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>86.24</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1619</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>007151</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>前海开源沪港深聚瑞混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.34</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>9.51</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0837</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>012060</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>富国全球消费精选混合型证券投资基金（QDII）A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>4.69</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>37.90</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0774</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>012061</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>富国全球消费精选混合型证券投资基金（QDII）美元现汇</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>4.69</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>37.90</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0774</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>002443</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>前海开源沪港深龙头精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.84</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>9.27</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0630</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>519601</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>海富通中国海外精选混合(QDII)</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>87.89</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>6.35</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0616</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>009939</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>淳厚欣享一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>78.15</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.96</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0604</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>008187</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>淳厚信睿核心精选混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>90.45</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0378</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>006652</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>富国金融地产行业混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>88.57</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0182</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>004091</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>博时沪港深价值优选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>78.68</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0173</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>519602</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>海富通大中华精选混合QDII</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>80.70</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>5.82</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0087</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>012062</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>富国全球消费精选混合型证券投资基金（QDII）C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>37.90</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0046</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>011124</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>富国金融地产行业混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>88.57</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0040</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>004092</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>博时沪港深价值优选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>78.68</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0027</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/港股/01209-华润万象生活.xlsx
+++ b/数据整理/stocks/港股/01209-华润万象生活.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2037,4 +2038,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>18</v>
+      </c>
+      <c r="D2" t="n">
+        <v>5.22</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>10</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2.27</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>6</v>
+      </c>
+      <c r="D4" t="n">
+        <v>3.41</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>2</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/港股/01209-华润万象生活.xlsx
+++ b/数据整理/stocks/港股/01209-华润万象生活.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2046,7 +2047,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2057,17 +2058,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -2077,14 +2098,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>18</v>
-      </c>
-      <c r="D2" t="n">
-        <v>5.22</v>
+          <t>009714</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华安聚优精选混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>85.20</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>90.54</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.8201</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -2093,14 +2136,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
+          <t>008371</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华安汇智精选两年持有期混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>13.44</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.34</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.62</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.6209</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>10</v>
-      </c>
-      <c r="D3" t="n">
-        <v>2.27</v>
       </c>
     </row>
     <row r="4">
@@ -2109,14 +2174,120 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>008290</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华安现代生活混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.41</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1365</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D2" t="n">
+        <v>3.58</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>18</v>
+      </c>
+      <c r="D3" t="n">
+        <v>5.22</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D4" t="n">
-        <v>3.41</v>
+        <v>2.27</v>
       </c>
     </row>
     <row r="5">
@@ -2125,13 +2296,29 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>6</v>
+      </c>
+      <c r="D5" t="n">
+        <v>3.41</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>2</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>0.8</v>
       </c>
     </row>

--- a/数据整理/stocks/港股/01209-华润万象生活.xlsx
+++ b/数据整理/stocks/港股/01209-华润万象生活.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2217,7 +2218,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2228,17 +2229,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -2248,14 +2269,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>3</v>
-      </c>
-      <c r="D2" t="n">
-        <v>3.58</v>
+          <t>007139</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>富国民裕进取沪港深成长精选混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>12.79</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.21</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.18</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.6625</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -2264,14 +2307,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>18</v>
-      </c>
-      <c r="D3" t="n">
-        <v>5.22</v>
+          <t>004424</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>汇添富文体娱乐主题混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>18.52</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>90.11</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.5815</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -2280,14 +2345,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>10</v>
-      </c>
-      <c r="D4" t="n">
-        <v>2.27</v>
+          <t>004099</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>前海开源沪港深景气行业精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.07</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>8.47</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0347</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="5">
@@ -2296,14 +2383,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>6</v>
-      </c>
-      <c r="D5" t="n">
-        <v>3.41</v>
+          <t>006205</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>汇添富沪港深优势精选定期开放混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.67</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0175</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="6">
@@ -2312,13 +2421,167 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>519602</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>海富通大中华精选混合QDII</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>89.68</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.85</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0053</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>5</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>3</v>
+      </c>
+      <c r="D3" t="n">
+        <v>3.58</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>18</v>
+      </c>
+      <c r="D4" t="n">
+        <v>5.22</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>10</v>
+      </c>
+      <c r="D5" t="n">
+        <v>2.27</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>6</v>
+      </c>
+      <c r="D6" t="n">
+        <v>3.41</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>2</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>0.8</v>
       </c>
     </row>

--- a/数据整理/stocks/港股/01209-华润万象生活.xlsx
+++ b/数据整理/stocks/港股/01209-华润万象生活.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2464,7 +2465,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2475,17 +2476,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -2495,14 +2516,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>5</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1.3</v>
+          <t>007139</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>富国民裕进取沪港深成长精选混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>19.64</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>87.43</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.7993</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -2511,14 +2554,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>3</v>
-      </c>
-      <c r="D3" t="n">
-        <v>3.58</v>
+          <t>004099</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>前海开源沪港深景气行业精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>84.29</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.95</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0277</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -2527,14 +2592,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>18</v>
-      </c>
-      <c r="D4" t="n">
-        <v>5.22</v>
+          <t>001942</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>前海开源沪港深汇鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>87.24</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.83</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0048</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="5">
@@ -2543,14 +2630,136 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>001943</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>前海开源沪港深汇鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>87.24</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.83</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0039</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>4</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.84</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>5</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>3</v>
+      </c>
+      <c r="D4" t="n">
+        <v>3.58</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="D5" t="n">
-        <v>2.27</v>
+        <v>5.22</v>
       </c>
     </row>
     <row r="6">
@@ -2559,14 +2768,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D6" t="n">
-        <v>3.41</v>
+        <v>2.27</v>
       </c>
     </row>
     <row r="7">
@@ -2575,13 +2784,29 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>6</v>
+      </c>
+      <c r="D7" t="n">
+        <v>3.41</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>2</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>0.8</v>
       </c>
     </row>

--- a/数据整理/stocks/港股/01209-华润万象生活.xlsx
+++ b/数据整理/stocks/港股/01209-华润万象生活.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D2" t="n">
-        <v>0.84</v>
+        <v>0.76</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D3" t="n">
-        <v>1.3</v>
+        <v>0.84</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D4" t="n">
-        <v>3.58</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="D5" t="n">
-        <v>5.22</v>
+        <v>3.58</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="D6" t="n">
-        <v>2.27</v>
+        <v>5.22</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D7" t="n">
-        <v>3.41</v>
+        <v>2.27</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>6</v>
+      </c>
+      <c r="D8" t="n">
+        <v>3.41</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>2</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>0.8</v>
       </c>
     </row>
@@ -600,6 +617,290 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>007139</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>富国民裕进取沪港深成长精选混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>10.56</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>88.09</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.36</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.5660</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>011556</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>富国民裕进取沪港深成长精选混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>88.09</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.36</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1319</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>012586</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>南方港股创新视野一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>50.74</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0503</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>001942</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>前海开源沪港深汇鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>87.24</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.77</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0081</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>012587</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>南方港股创新视野一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>50.74</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0044</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>001943</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>前海开源沪港深汇鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>87.24</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.77</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0043</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -807,7 +1108,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1053,7 +1354,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1223,7 +1524,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1963,7 +2264,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2399,7 +2700,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2683,7 +2984,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/港股/01209-华润万象生活.xlsx
+++ b/数据整理/stocks/港股/01209-华润万象生活.xlsx
@@ -7,14 +7,15 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -458,7 +459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,14 +490,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="D2" t="n">
-        <v>0.76</v>
+        <v>3.03</v>
       </c>
     </row>
     <row r="3">
@@ -505,14 +506,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D3" t="n">
-        <v>0.84</v>
+        <v>0.76</v>
       </c>
     </row>
     <row r="4">
@@ -521,14 +522,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D4" t="n">
-        <v>1.3</v>
+        <v>0.84</v>
       </c>
     </row>
     <row r="5">
@@ -537,14 +538,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D5" t="n">
-        <v>3.58</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="6">
@@ -553,14 +554,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="D6" t="n">
-        <v>5.22</v>
+        <v>3.58</v>
       </c>
     </row>
     <row r="7">
@@ -569,14 +570,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="D7" t="n">
-        <v>2.27</v>
+        <v>5.22</v>
       </c>
     </row>
     <row r="8">
@@ -585,14 +586,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D8" t="n">
-        <v>3.41</v>
+        <v>2.27</v>
       </c>
     </row>
     <row r="9">
@@ -601,13 +602,29 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>6</v>
+      </c>
+      <c r="D9" t="n">
+        <v>3.41</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C9" t="n">
+      <c r="C10" t="n">
         <v>2</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D10" t="n">
         <v>0.8</v>
       </c>
     </row>
@@ -616,7 +633,917 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>007455</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>富国蓝筹精选股票（QDII）人民币</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>14.75</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.35</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.3997</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>010583</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>富国蓝筹精选股票（QDII）美元</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>14.75</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.35</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.3997</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>501087</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>交银施罗德瑞丰混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>21.14</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>88.79</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.7758</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>007139</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>富国民裕进取沪港深成长精选混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>13.04</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.50</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.98</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.6494</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>004424</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>汇添富文体娱乐主题混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>22.99</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.02</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.5862</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>010104</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>景顺长城消费精选混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>16.89</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>85.17</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.5016</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>011556</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>富国民裕进取沪港深成长精选混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.50</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.98</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1295</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>011687</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>易方达龙头优选两年持有混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.47</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0976</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>013041</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>鹏扬景浦一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>11.90</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>25.34</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0726</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>012253</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>鹏扬景润一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>8.67</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>24.74</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0546</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>015183</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>汇添富文体娱乐主题混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>92.02</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0357</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>011688</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>易方达龙头优选两年持有混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>92.47</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0235</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>006205</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>汇添富沪港深优势精选定期开放混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>91.51</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.28</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0235</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>519601</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>海富通中国海外精选混合（QDII）</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>94.54</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0192</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>001942</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>前海开源沪港深汇鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>90.30</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>5.30</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0164</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>010105</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>景顺长城消费精选混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>85.17</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0151</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>001943</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>前海开源沪港深汇鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>90.30</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>5.30</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0143</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>015184</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>汇添富文体娱乐主题混合D</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>92.02</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0069</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>013042</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>鹏扬景浦一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>25.34</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0054</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>519602</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>海富通大中华精选混合（QDII）</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>89.56</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0035</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>012254</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>鹏扬景润一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>24.74</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0027</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -900,7 +1827,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1108,7 +2035,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1354,7 +2281,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1524,7 +2451,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2264,7 +3191,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2700,7 +3627,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2982,136 +3909,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H3"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>007455</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>富国蓝筹精选股票（QDII）人民币</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>14.75</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>93.35</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>2.71</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.3997</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>010583</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>富国蓝筹精选股票（QDII）美元</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>14.75</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>93.35</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>2.71</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.3997</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>8</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>